--- a/datset.xlsx
+++ b/datset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC06794-FB24-4357-BC25-96AC9C0BC2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5CBE8-35FB-4359-B2FE-D87CA7B9E79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4440" windowWidth="15315" windowHeight="12270" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="5130" windowWidth="15315" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Входные данные для анализа" sheetId="1" r:id="rId1"/>
@@ -512,13 +512,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="E3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2259,10 +2259,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2277,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2304,7 +2304,7 @@
       <c r="E1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>103</v>
       </c>
     </row>
